--- a/image/ingredient.xlsx
+++ b/image/ingredient.xlsx
@@ -746,42 +746,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="172.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="173.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="69.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="70.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/ingredient.xlsx
+++ b/image/ingredient.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="192">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -333,7 +333,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier for the ingredient</t>
+    <t>An identifier or code by which the ingredient can be referenced</t>
   </si>
   <si>
     <t>The identifier(s) of this Ingredient that are assigned by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
@@ -372,10 +372,10 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of this Ingredient</t>
-  </si>
-  <si>
-    <t>Manufacturer of this Ingredient.</t>
+    <t>The organization that manufactures this ingredient</t>
+  </si>
+  <si>
+    <t>The organization that manufactures this ingredient.</t>
   </si>
   <si>
     <t>Ingredient.specifiedSubstance</t>
@@ -398,10 +398,6 @@
     <t>Ingredient.specifiedSubstance.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -440,13 +436,17 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Ingredient.specifiedSubstance.code</t>
-  </si>
-  <si>
-    <t>The specified substance</t>
-  </si>
-  <si>
-    <t>The specified substance.</t>
+    <t>Ingredient.specifiedSubstance.code[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(SubstanceDefinition|Substance)</t>
+  </si>
+  <si>
+    <t>Substance as a 'specified substance', implying extra substance related characteristics</t>
+  </si>
+  <si>
+    <t>Substance as a 'specified substance', implying extra substance related characteristics.</t>
   </si>
   <si>
     <t>Ingredient.specifiedSubstance.group</t>
@@ -561,7 +561,7 @@
     <t>Ingredient.specifiedSubstance.strength.referenceStrength.modifierExtension</t>
   </si>
   <si>
-    <t>Ingredient.specifiedSubstance.strength.referenceStrength.substance</t>
+    <t>Ingredient.specifiedSubstance.strength.referenceStrength.substance[x]</t>
   </si>
   <si>
     <t>Relevant reference substance</t>
@@ -585,10 +585,10 @@
     <t>Ingredient.substance</t>
   </si>
   <si>
-    <t>The ingredient substance</t>
-  </si>
-  <si>
-    <t>The ingredient substance.</t>
+    <t>The substance that comprises this ingredient</t>
+  </si>
+  <si>
+    <t>The substance that comprises this ingredient.</t>
   </si>
   <si>
     <t>Ingredient.substance.id</t>
@@ -600,7 +600,13 @@
     <t>Ingredient.substance.modifierExtension</t>
   </si>
   <si>
-    <t>Ingredient.substance.code</t>
+    <t>Ingredient.substance.code[x]</t>
+  </si>
+  <si>
+    <t>A code that represents the ingredient substance</t>
+  </si>
+  <si>
+    <t>A code that represents the ingredient substance.</t>
   </si>
   <si>
     <t>Ingredient.substance.strength</t>
@@ -746,42 +752,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="173.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="172.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="70.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="69.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2335,13 +2341,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2392,27 +2398,27 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2441,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>93</v>
@@ -2494,7 +2500,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2509,16 +2515,16 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2540,10 +2546,10 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>93</v>
@@ -2598,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2641,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>136</v>
@@ -2698,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>45</v>
@@ -3041,13 +3047,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3098,22 +3104,22 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -3147,7 +3153,7 @@
         <v>91</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>93</v>
@@ -3200,7 +3206,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3215,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -3224,7 +3230,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3246,10 +3252,10 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>93</v>
@@ -3304,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3747,7 +3753,7 @@
         <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>164</v>
@@ -4047,13 +4053,13 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4104,22 +4110,22 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -4153,7 +4159,7 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>93</v>
@@ -4206,7 +4212,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4221,7 +4227,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -4230,7 +4236,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4252,10 +4258,10 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>93</v>
@@ -4310,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4353,7 +4359,7 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>176</v>
@@ -4653,7 +4659,7 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>164</v>
@@ -4953,13 +4959,13 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5010,22 +5016,22 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -5059,7 +5065,7 @@
         <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>93</v>
@@ -5112,7 +5118,7 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
@@ -5127,7 +5133,7 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -5136,7 +5142,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5158,10 +5164,10 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>93</v>
@@ -5216,7 +5222,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5259,13 +5265,13 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5336,7 +5342,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5416,7 +5422,7 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
